--- a/data/k4AdmixDominantClusters.xlsx
+++ b/data/k4AdmixDominantClusters.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Documents/GitHub/floridaKeysMcavSnp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D21C761-02AE-D542-8684-4E2E76393EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384AE130-AA1A-924C-951C-CDA10922193D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{91213498-7F54-9141-A962-38934D359C8C}"/>
+    <workbookView xWindow="13840" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{91213498-7F54-9141-A962-38934D359C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId3"/>
+    <pivotCache cacheId="41" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -84,16 +84,16 @@
     <t>Count of maxCluster</t>
   </si>
   <si>
-    <t>lightBlue</t>
+    <t>cluster1</t>
   </si>
   <si>
-    <t>darkBlue</t>
+    <t>cluster2</t>
   </si>
   <si>
-    <t>yellow</t>
+    <t>cluster3</t>
   </si>
   <si>
-    <t>green</t>
+    <t>cluster4</t>
   </si>
 </sst>
 </file>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44102.668228703704" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="217" xr:uid="{A0F4368C-B343-9948-99B5-55E3C72A4B7D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44106.678734606481" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="216" xr:uid="{A0F4368C-B343-9948-99B5-55E3C72A4B7D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="Sheet1"/>
   </cacheSource>
@@ -187,29 +187,29 @@
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="yellow" numFmtId="0">
+    <cacheField name="cluster1" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.0000000000000001E-9" maxValue="0.99999999699999997"/>
     </cacheField>
-    <cacheField name="green" numFmtId="0">
+    <cacheField name="cluster2" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.0000000000000001E-9" maxValue="0.99999999699999997"/>
     </cacheField>
-    <cacheField name="lightBlue" numFmtId="0">
+    <cacheField name="cluster3" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.0000000000000001E-9" maxValue="0.99999999699999997"/>
     </cacheField>
-    <cacheField name="darkBlue" numFmtId="0">
+    <cacheField name="cluster4" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.0000000000000001E-9" maxValue="0.99999999699999997"/>
     </cacheField>
     <cacheField name="maxCluster" numFmtId="0">
       <sharedItems containsBlank="1" count="9">
-        <s v="yellow"/>
-        <s v="lightBlue"/>
-        <s v="green"/>
-        <s v="darkBlue"/>
+        <s v="cluster1"/>
+        <s v="cluster3"/>
+        <s v="cluster2"/>
+        <s v="cluster4"/>
         <m/>
-        <s v="cluster1" u="1"/>
-        <s v="cluster4" u="1"/>
-        <s v="cluster3" u="1"/>
-        <s v="cluster2" u="1"/>
+        <s v="green" u="1"/>
+        <s v="yellow" u="1"/>
+        <s v="lightBlue" u="1"/>
+        <s v="darkBlue" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="217">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="216">
   <r>
     <n v="157"/>
     <x v="0"/>
@@ -2167,20 +2167,11 @@
     <m/>
     <x v="4"/>
   </r>
-  <r>
-    <m/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2F89527-3373-104C-9B93-664BAA7ECCE4}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2F89527-3373-104C-9B93-664BAA7ECCE4}" name="PivotTable2" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2205,14 +2196,14 @@
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
       <items count="10">
         <item x="4"/>
-        <item x="3"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="0"/>
         <item x="2"/>
         <item x="1"/>
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -2235,112 +2226,112 @@
       <x/>
     </i>
     <i r="1">
-      <x v="3"/>
+      <x v="7"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="6"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="8"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="3"/>
+      <x v="7"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="6"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="7"/>
     </i>
     <i r="1">
-      <x v="3"/>
+      <x v="8"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="6"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="8"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="6"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="3"/>
+      <x v="7"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i r="1">
-      <x v="3"/>
+      <x v="7"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="6"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="8"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i r="1">
-      <x v="3"/>
+      <x v="7"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="8"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="6"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="6"/>
     </i>
     <i r="1">
-      <x v="3"/>
+      <x v="7"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="8"/>
@@ -2669,8 +2660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE32926-0E3A-F548-91D5-198A9982C6F3}">
   <dimension ref="A3:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2697,7 +2688,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6">
         <v>9</v>
@@ -2705,7 +2696,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6">
         <v>3</v>
@@ -2713,7 +2704,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -2729,7 +2720,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6">
         <v>18</v>
@@ -2737,7 +2728,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
@@ -2745,7 +2736,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6">
         <v>2</v>
@@ -2753,7 +2744,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -2769,7 +2760,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="6">
         <v>8</v>
@@ -2777,7 +2768,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6">
         <v>8</v>
@@ -2785,7 +2776,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6">
         <v>4</v>
@@ -2793,7 +2784,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6">
         <v>3</v>
@@ -2809,7 +2800,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>14</v>
@@ -2817,7 +2808,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="6">
         <v>5</v>
@@ -2825,7 +2816,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" s="6">
         <v>4</v>
@@ -2833,7 +2824,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" s="6">
         <v>4</v>
@@ -2849,7 +2840,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" s="6">
         <v>18</v>
@@ -2857,7 +2848,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" s="6">
         <v>11</v>
@@ -2865,7 +2856,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26" s="6">
         <v>6</v>
@@ -2873,7 +2864,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B27" s="6">
         <v>2</v>
@@ -2889,7 +2880,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B29" s="6">
         <v>16</v>
@@ -2897,7 +2888,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B30" s="6">
         <v>12</v>
@@ -2913,7 +2904,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B32" s="6">
         <v>15</v>
@@ -2921,7 +2912,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B33" s="6">
         <v>5</v>
@@ -2929,7 +2920,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B34" s="6">
         <v>4</v>
@@ -2937,7 +2928,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
@@ -2953,7 +2944,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B37" s="6">
         <v>16</v>
@@ -2961,7 +2952,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B38" s="6">
         <v>10</v>
@@ -2969,7 +2960,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B39" s="6">
         <v>4</v>
@@ -2977,7 +2968,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B40" s="6">
         <v>2</v>
@@ -3016,7 +3007,7 @@
   <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3033,16 +3024,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>10</v>
@@ -3069,7 +3060,7 @@
       </c>
       <c r="G2" s="3" t="str">
         <f>INDEX($C$1:$F$1,MATCH(MAX(C2:F2),C2:F2,0))</f>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3093,7 +3084,7 @@
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G66" si="0">INDEX($C$1:$F$1,MATCH(MAX(C3:F3),C3:F3,0))</f>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3117,7 +3108,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3141,7 +3132,7 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3165,7 +3156,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3189,7 +3180,7 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3213,7 +3204,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3237,7 +3228,7 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3261,7 +3252,7 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3285,7 +3276,7 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3309,7 +3300,7 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3333,7 +3324,7 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3357,7 +3348,7 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3381,7 +3372,7 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3405,7 +3396,7 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3429,7 +3420,7 @@
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3453,7 +3444,7 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3477,7 +3468,7 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3501,7 +3492,7 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3525,7 +3516,7 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3549,7 +3540,7 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3573,7 +3564,7 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3597,7 +3588,7 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3621,7 +3612,7 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3645,7 +3636,7 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3669,7 +3660,7 @@
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3693,7 +3684,7 @@
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3717,7 +3708,7 @@
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3741,7 +3732,7 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3765,7 +3756,7 @@
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3789,7 +3780,7 @@
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3813,7 +3804,7 @@
       </c>
       <c r="G33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3837,7 +3828,7 @@
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3861,7 +3852,7 @@
       </c>
       <c r="G35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3885,7 +3876,7 @@
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3909,7 +3900,7 @@
       </c>
       <c r="G37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3933,7 +3924,7 @@
       </c>
       <c r="G38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3957,7 +3948,7 @@
       </c>
       <c r="G39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3981,7 +3972,7 @@
       </c>
       <c r="G40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4005,7 +3996,7 @@
       </c>
       <c r="G41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4029,7 +4020,7 @@
       </c>
       <c r="G42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4053,7 +4044,7 @@
       </c>
       <c r="G43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -4077,7 +4068,7 @@
       </c>
       <c r="G44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -4101,7 +4092,7 @@
       </c>
       <c r="G45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -4125,7 +4116,7 @@
       </c>
       <c r="G46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4149,7 +4140,7 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4173,7 +4164,7 @@
       </c>
       <c r="G48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4197,7 +4188,7 @@
       </c>
       <c r="G49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4221,7 +4212,7 @@
       </c>
       <c r="G50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4245,7 +4236,7 @@
       </c>
       <c r="G51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4269,7 +4260,7 @@
       </c>
       <c r="G52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4293,7 +4284,7 @@
       </c>
       <c r="G53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4317,7 +4308,7 @@
       </c>
       <c r="G54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4341,7 +4332,7 @@
       </c>
       <c r="G55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4365,7 +4356,7 @@
       </c>
       <c r="G56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4389,7 +4380,7 @@
       </c>
       <c r="G57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4413,7 +4404,7 @@
       </c>
       <c r="G58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4437,7 +4428,7 @@
       </c>
       <c r="G59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4461,7 +4452,7 @@
       </c>
       <c r="G60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4485,7 +4476,7 @@
       </c>
       <c r="G61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -4509,7 +4500,7 @@
       </c>
       <c r="G62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -4533,7 +4524,7 @@
       </c>
       <c r="G63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4557,7 +4548,7 @@
       </c>
       <c r="G64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -4581,7 +4572,7 @@
       </c>
       <c r="G65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4605,7 +4596,7 @@
       </c>
       <c r="G66" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -4629,7 +4620,7 @@
       </c>
       <c r="G67" s="3" t="str">
         <f t="shared" ref="G67:G130" si="1">INDEX($C$1:$F$1,MATCH(MAX(C67:F67),C67:F67,0))</f>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4653,7 +4644,7 @@
       </c>
       <c r="G68" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4677,7 +4668,7 @@
       </c>
       <c r="G69" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4701,7 +4692,7 @@
       </c>
       <c r="G70" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4725,7 +4716,7 @@
       </c>
       <c r="G71" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4749,7 +4740,7 @@
       </c>
       <c r="G72" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4773,7 +4764,7 @@
       </c>
       <c r="G73" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4797,7 +4788,7 @@
       </c>
       <c r="G74" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4821,7 +4812,7 @@
       </c>
       <c r="G75" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4845,7 +4836,7 @@
       </c>
       <c r="G76" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4869,7 +4860,7 @@
       </c>
       <c r="G77" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4893,7 +4884,7 @@
       </c>
       <c r="G78" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4917,7 +4908,7 @@
       </c>
       <c r="G79" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4941,7 +4932,7 @@
       </c>
       <c r="G80" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4965,7 +4956,7 @@
       </c>
       <c r="G81" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4989,7 +4980,7 @@
       </c>
       <c r="G82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -5013,7 +5004,7 @@
       </c>
       <c r="G83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -5037,7 +5028,7 @@
       </c>
       <c r="G84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -5061,7 +5052,7 @@
       </c>
       <c r="G85" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5085,7 +5076,7 @@
       </c>
       <c r="G86" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -5109,7 +5100,7 @@
       </c>
       <c r="G87" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5133,7 +5124,7 @@
       </c>
       <c r="G88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -5157,7 +5148,7 @@
       </c>
       <c r="G89" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -5181,7 +5172,7 @@
       </c>
       <c r="G90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -5205,7 +5196,7 @@
       </c>
       <c r="G91" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -5229,7 +5220,7 @@
       </c>
       <c r="G92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5253,7 +5244,7 @@
       </c>
       <c r="G93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5277,7 +5268,7 @@
       </c>
       <c r="G94" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5301,7 +5292,7 @@
       </c>
       <c r="G95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5325,7 +5316,7 @@
       </c>
       <c r="G96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5349,7 +5340,7 @@
       </c>
       <c r="G97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5373,7 +5364,7 @@
       </c>
       <c r="G98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5397,7 +5388,7 @@
       </c>
       <c r="G99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5421,7 +5412,7 @@
       </c>
       <c r="G100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5445,7 +5436,7 @@
       </c>
       <c r="G101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5469,7 +5460,7 @@
       </c>
       <c r="G102" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5493,7 +5484,7 @@
       </c>
       <c r="G103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5517,7 +5508,7 @@
       </c>
       <c r="G104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5541,7 +5532,7 @@
       </c>
       <c r="G105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5565,7 +5556,7 @@
       </c>
       <c r="G106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5589,7 +5580,7 @@
       </c>
       <c r="G107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5613,7 +5604,7 @@
       </c>
       <c r="G108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5637,7 +5628,7 @@
       </c>
       <c r="G109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5661,7 +5652,7 @@
       </c>
       <c r="G110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5685,7 +5676,7 @@
       </c>
       <c r="G111" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5709,7 +5700,7 @@
       </c>
       <c r="G112" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5733,7 +5724,7 @@
       </c>
       <c r="G113" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -5757,7 +5748,7 @@
       </c>
       <c r="G114" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -5781,7 +5772,7 @@
       </c>
       <c r="G115" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5805,7 +5796,7 @@
       </c>
       <c r="G116" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -5829,7 +5820,7 @@
       </c>
       <c r="G117" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5853,7 +5844,7 @@
       </c>
       <c r="G118" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5877,7 +5868,7 @@
       </c>
       <c r="G119" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5901,7 +5892,7 @@
       </c>
       <c r="G120" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5925,7 +5916,7 @@
       </c>
       <c r="G121" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5949,7 +5940,7 @@
       </c>
       <c r="G122" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5973,7 +5964,7 @@
       </c>
       <c r="G123" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5997,7 +5988,7 @@
       </c>
       <c r="G124" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -6021,7 +6012,7 @@
       </c>
       <c r="G125" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -6045,7 +6036,7 @@
       </c>
       <c r="G126" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -6069,7 +6060,7 @@
       </c>
       <c r="G127" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -6093,7 +6084,7 @@
       </c>
       <c r="G128" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -6117,7 +6108,7 @@
       </c>
       <c r="G129" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -6141,7 +6132,7 @@
       </c>
       <c r="G130" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -6165,7 +6156,7 @@
       </c>
       <c r="G131" s="3" t="str">
         <f t="shared" ref="G131:G194" si="2">INDEX($C$1:$F$1,MATCH(MAX(C131:F131),C131:F131,0))</f>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -6189,7 +6180,7 @@
       </c>
       <c r="G132" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -6213,7 +6204,7 @@
       </c>
       <c r="G133" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -6237,7 +6228,7 @@
       </c>
       <c r="G134" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -6261,7 +6252,7 @@
       </c>
       <c r="G135" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -6285,7 +6276,7 @@
       </c>
       <c r="G136" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -6309,7 +6300,7 @@
       </c>
       <c r="G137" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -6333,7 +6324,7 @@
       </c>
       <c r="G138" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -6357,7 +6348,7 @@
       </c>
       <c r="G139" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -6381,7 +6372,7 @@
       </c>
       <c r="G140" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -6405,7 +6396,7 @@
       </c>
       <c r="G141" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -6429,7 +6420,7 @@
       </c>
       <c r="G142" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -6453,7 +6444,7 @@
       </c>
       <c r="G143" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -6477,7 +6468,7 @@
       </c>
       <c r="G144" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -6501,7 +6492,7 @@
       </c>
       <c r="G145" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -6525,7 +6516,7 @@
       </c>
       <c r="G146" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -6549,7 +6540,7 @@
       </c>
       <c r="G147" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -6573,7 +6564,7 @@
       </c>
       <c r="G148" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -6597,7 +6588,7 @@
       </c>
       <c r="G149" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -6621,7 +6612,7 @@
       </c>
       <c r="G150" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -6645,7 +6636,7 @@
       </c>
       <c r="G151" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -6669,7 +6660,7 @@
       </c>
       <c r="G152" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -6693,7 +6684,7 @@
       </c>
       <c r="G153" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -6717,7 +6708,7 @@
       </c>
       <c r="G154" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -6741,7 +6732,7 @@
       </c>
       <c r="G155" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -6765,7 +6756,7 @@
       </c>
       <c r="G156" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -6789,7 +6780,7 @@
       </c>
       <c r="G157" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -6813,7 +6804,7 @@
       </c>
       <c r="G158" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -6837,7 +6828,7 @@
       </c>
       <c r="G159" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -6861,7 +6852,7 @@
       </c>
       <c r="G160" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -6885,7 +6876,7 @@
       </c>
       <c r="G161" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -6909,7 +6900,7 @@
       </c>
       <c r="G162" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6933,7 +6924,7 @@
       </c>
       <c r="G163" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -6957,7 +6948,7 @@
       </c>
       <c r="G164" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -6981,7 +6972,7 @@
       </c>
       <c r="G165" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -7005,7 +6996,7 @@
       </c>
       <c r="G166" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -7029,7 +7020,7 @@
       </c>
       <c r="G167" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -7053,7 +7044,7 @@
       </c>
       <c r="G168" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -7077,7 +7068,7 @@
       </c>
       <c r="G169" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -7101,7 +7092,7 @@
       </c>
       <c r="G170" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -7125,7 +7116,7 @@
       </c>
       <c r="G171" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -7149,7 +7140,7 @@
       </c>
       <c r="G172" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -7173,7 +7164,7 @@
       </c>
       <c r="G173" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -7197,7 +7188,7 @@
       </c>
       <c r="G174" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -7221,7 +7212,7 @@
       </c>
       <c r="G175" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -7245,7 +7236,7 @@
       </c>
       <c r="G176" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -7269,7 +7260,7 @@
       </c>
       <c r="G177" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -7293,7 +7284,7 @@
       </c>
       <c r="G178" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -7317,7 +7308,7 @@
       </c>
       <c r="G179" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -7341,7 +7332,7 @@
       </c>
       <c r="G180" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -7365,7 +7356,7 @@
       </c>
       <c r="G181" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -7389,7 +7380,7 @@
       </c>
       <c r="G182" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -7413,7 +7404,7 @@
       </c>
       <c r="G183" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -7437,7 +7428,7 @@
       </c>
       <c r="G184" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -7461,7 +7452,7 @@
       </c>
       <c r="G185" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -7485,7 +7476,7 @@
       </c>
       <c r="G186" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -7509,7 +7500,7 @@
       </c>
       <c r="G187" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -7533,7 +7524,7 @@
       </c>
       <c r="G188" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -7557,7 +7548,7 @@
       </c>
       <c r="G189" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -7581,7 +7572,7 @@
       </c>
       <c r="G190" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -7605,7 +7596,7 @@
       </c>
       <c r="G191" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -7629,7 +7620,7 @@
       </c>
       <c r="G192" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -7653,7 +7644,7 @@
       </c>
       <c r="G193" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -7677,7 +7668,7 @@
       </c>
       <c r="G194" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>darkBlue</v>
+        <v>cluster4</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -7701,7 +7692,7 @@
       </c>
       <c r="G195" s="3" t="str">
         <f t="shared" ref="G195:G216" si="3">INDEX($C$1:$F$1,MATCH(MAX(C195:F195),C195:F195,0))</f>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -7725,7 +7716,7 @@
       </c>
       <c r="G196" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -7749,7 +7740,7 @@
       </c>
       <c r="G197" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -7773,7 +7764,7 @@
       </c>
       <c r="G198" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -7797,7 +7788,7 @@
       </c>
       <c r="G199" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -7821,7 +7812,7 @@
       </c>
       <c r="G200" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -7845,7 +7836,7 @@
       </c>
       <c r="G201" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -7869,7 +7860,7 @@
       </c>
       <c r="G202" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -7893,7 +7884,7 @@
       </c>
       <c r="G203" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -7917,7 +7908,7 @@
       </c>
       <c r="G204" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -7941,7 +7932,7 @@
       </c>
       <c r="G205" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -7965,7 +7956,7 @@
       </c>
       <c r="G206" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -7989,7 +7980,7 @@
       </c>
       <c r="G207" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -8013,7 +8004,7 @@
       </c>
       <c r="G208" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -8037,7 +8028,7 @@
       </c>
       <c r="G209" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -8061,7 +8052,7 @@
       </c>
       <c r="G210" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -8085,7 +8076,7 @@
       </c>
       <c r="G211" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -8109,7 +8100,7 @@
       </c>
       <c r="G212" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>yellow</v>
+        <v>cluster1</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -8133,7 +8124,7 @@
       </c>
       <c r="G213" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -8157,7 +8148,7 @@
       </c>
       <c r="G214" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -8181,7 +8172,7 @@
       </c>
       <c r="G215" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>lightBlue</v>
+        <v>cluster3</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -8205,7 +8196,7 @@
       </c>
       <c r="G216" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>cluster2</v>
       </c>
     </row>
   </sheetData>
